--- a/bulletin/macroeconomics/static/macroeconomics/tables/export_kazakhstan_by_country.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/export_kazakhstan_by_country.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBD6FAB-3B43-4FF6-80E0-BE28BF031EFD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3934F7-942E-494F-BF4F-7C40DBAF3C48}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>в млн $</t>
   </si>
@@ -94,19 +94,13 @@
     <t>Сингапур</t>
   </si>
   <si>
-    <t>Соединенное</t>
-  </si>
-  <si>
-    <t>Королевство</t>
-  </si>
-  <si>
-    <t>Остальные</t>
-  </si>
-  <si>
-    <t>страны</t>
-  </si>
-  <si>
     <t>2022 к 2021 году. %</t>
+  </si>
+  <si>
+    <t>Соединенное Королевство</t>
+  </si>
+  <si>
+    <t>Остальные страны</t>
   </si>
 </sst>
 </file>
@@ -425,15 +419,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K20"/>
+      <selection activeCell="A18" sqref="A18:K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="45.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -465,7 +462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -497,7 +494,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -532,7 +529,7 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -567,7 +564,7 @@
         <v>112.3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -602,7 +599,7 @@
         <v>144.80000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -637,7 +634,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -672,7 +669,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -707,7 +704,7 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -742,7 +739,7 @@
         <v>134.6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -777,7 +774,7 @@
         <v>121.8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -812,7 +809,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -847,7 +844,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -882,7 +879,7 @@
         <v>122.9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -917,7 +914,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -952,7 +949,7 @@
         <v>75.099999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -987,12 +984,12 @@
         <v>101.7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>785</v>
@@ -1022,49 +1019,39 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
       <c r="B18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C18" s="1">
         <v>12215</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D18" s="1">
         <v>10044</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E18" s="1">
         <v>7981</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F18" s="1">
         <v>11091</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G18" s="1">
         <v>14278</v>
       </c>
-      <c r="H19">
+      <c r="H18">
         <v>128.69999999999999</v>
       </c>
-      <c r="I19">
+      <c r="I18">
         <v>7.2</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J18" s="1">
         <v>3356</v>
       </c>
-      <c r="K19">
+      <c r="K18">
         <v>63.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
